--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T11:11:24-03:00</t>
+    <t>2025-10-30T18:43:23-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.15</t>
+    <t>0.9.20</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T18:43:23-03:00</t>
+    <t>2025-11-18T19:57:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,7 +653,7 @@
     <t>organizationId</t>
   </si>
   <si>
-    <t>MedMe organization ID</t>
+    <t>MedMe pharmacy ID</t>
   </si>
   <si>
     <t>Organization.identifier:organizationId.id</t>
@@ -689,7 +689,7 @@
     <t>organizationCode</t>
   </si>
   <si>
-    <t>MedMe organization code</t>
+    <t>Code of the MedMe tenant the pharmacy organization is part of</t>
   </si>
   <si>
     <t>Organization.identifier:organizationCode.id</t>
@@ -707,7 +707,7 @@
     <t>Organization.identifier:organizationCode.system</t>
   </si>
   <si>
-    <t>https://fhir.medmehealth.com/pharmacy-services/systems/entity/organization/code</t>
+    <t>https://fhir.medmehealth.com/pharmacy-services/systems/entity/organization/enterprise-code</t>
   </si>
   <si>
     <t>Organization.identifier:organizationCode.value</t>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>138</v>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>82</v>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1782,17 +1782,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.06640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.71875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1801,23 +1801,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.72265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="51.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3403,7 +3403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>209</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>211</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>221</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>223</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>289</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>310</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>318</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>378</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>384</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>398</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>404</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>411</v>
       </c>
@@ -10565,12 +10565,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1782,17 +1782,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.71875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1801,23 +1801,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.90625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.72265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.09375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="51.296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3403,7 +3403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>209</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>211</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>221</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>223</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>289</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>310</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>318</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>378</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>384</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>398</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>404</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>411</v>
       </c>
@@ -10565,12 +10565,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK83">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -820,7 +820,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/organization-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/organization-type</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1782,17 +1782,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.06640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.71875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1801,23 +1801,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.72265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="51.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3403,7 +3403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>209</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>211</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>221</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>223</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>289</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>310</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>318</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>378</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>384</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>398</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>404</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>411</v>
       </c>
@@ -10565,12 +10565,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-organization.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
